--- a/8/2/PII por categoría funcional 2003 a 2021 - Trimestral.xlsx
+++ b/8/2/PII por categoría funcional 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Serie</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3594,40 +3597,81 @@
         <v>85</v>
       </c>
       <c r="B74">
-        <v>-28989</v>
+        <v>-26743</v>
       </c>
       <c r="C74">
-        <v>434993</v>
+        <v>441966</v>
       </c>
       <c r="D74">
-        <v>150502</v>
+        <v>157871</v>
       </c>
       <c r="E74">
-        <v>199633</v>
+        <v>199739</v>
       </c>
       <c r="F74">
-        <v>8781</v>
+        <v>8790</v>
       </c>
       <c r="G74">
-        <v>35856</v>
+        <v>35345</v>
       </c>
       <c r="H74">
         <v>40220</v>
       </c>
       <c r="I74">
-        <v>463981</v>
+        <v>468709</v>
       </c>
       <c r="J74">
-        <v>280943</v>
+        <v>285787</v>
       </c>
       <c r="K74">
-        <v>116832</v>
+        <v>116820</v>
       </c>
       <c r="L74">
-        <v>7698</v>
+        <v>7853</v>
       </c>
       <c r="M74">
-        <v>58508</v>
+        <v>58250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75">
+        <v>-16701</v>
+      </c>
+      <c r="C75">
+        <v>454892</v>
+      </c>
+      <c r="D75">
+        <v>159638</v>
+      </c>
+      <c r="E75">
+        <v>201181</v>
+      </c>
+      <c r="F75">
+        <v>9083</v>
+      </c>
+      <c r="G75">
+        <v>40036</v>
+      </c>
+      <c r="H75">
+        <v>44954</v>
+      </c>
+      <c r="I75">
+        <v>471593</v>
+      </c>
+      <c r="J75">
+        <v>285942</v>
+      </c>
+      <c r="K75">
+        <v>120198</v>
+      </c>
+      <c r="L75">
+        <v>8333</v>
+      </c>
+      <c r="M75">
+        <v>57120</v>
       </c>
     </row>
   </sheetData>
